--- a/Excel/Puyopuyo_CostTable.xlsx
+++ b/Excel/Puyopuyo_CostTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\部活・学校関係\学校\冬課題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Puyopuyo\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34621901-4701-438D-907F-EAE66157BD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2091BA3D-1827-4BE4-8ABC-4FCF67279D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{69444C38-F53F-464E-A8E2-FCA135B7F7B6}"/>
   </bookViews>
@@ -401,7 +401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +414,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -644,7 +650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +696,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,8 +708,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3B801A-7DA4-4BC4-843D-0431BA6C0771}">
   <dimension ref="C1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1087,7 +1099,7 @@
       </c>
     </row>
     <row r="5" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1099,7 +1111,7 @@
       <c r="F5" s="11">
         <v>5</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="19">
         <v>1</v>
       </c>
       <c r="H5" s="13">
@@ -1108,7 +1120,7 @@
       </c>
     </row>
     <row r="6" spans="3:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1120,14 +1132,14 @@
       <c r="F6" s="4">
         <v>10</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="6">
         <f t="shared" ref="H6:H18" si="0">F6-G6</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1137,14 +1149,16 @@
       <c r="F7" s="4">
         <v>15</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="20">
+        <v>2.5</v>
+      </c>
       <c r="H7" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>F7-G7</f>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="16"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1154,14 +1168,14 @@
       <c r="F8" s="4">
         <v>20</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="6">
-        <f t="shared" si="0"/>
+        <f>F8-G8</f>
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="16"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1171,14 +1185,14 @@
       <c r="F9" s="4">
         <v>25</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="16"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1188,14 +1202,14 @@
       <c r="F10" s="4">
         <v>15</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="16"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1205,14 +1219,14 @@
       <c r="F11" s="4">
         <v>35</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="17"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1222,14 +1236,14 @@
       <c r="F12" s="4">
         <v>15</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1241,14 +1255,14 @@
       <c r="F13" s="4">
         <v>8</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="16"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1258,14 +1272,14 @@
       <c r="F14" s="4">
         <v>4</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1275,14 +1289,14 @@
       <c r="F15" s="4">
         <v>5</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1294,14 +1308,14 @@
       <c r="F16" s="4">
         <v>5</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="4" t="s">
         <v>36</v>
       </c>
@@ -1311,7 +1325,7 @@
       <c r="F17" s="4">
         <v>5</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1330,7 +1344,7 @@
       <c r="F18" s="4">
         <v>20</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1348,11 +1362,11 @@
       </c>
       <c r="G19" s="9">
         <f>SUM(G5:G18)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H19" s="10">
         <f>SUM(H5:H18)</f>
-        <v>186</v>
+        <v>183.5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Puyopuyo_CostTable.xlsx
+++ b/Excel/Puyopuyo_CostTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Puyopuyo\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2091BA3D-1827-4BE4-8ABC-4FCF67279D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786DEA63-9777-4F66-AF3D-2DBA39F8714B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{69444C38-F53F-464E-A8E2-FCA135B7F7B6}"/>
   </bookViews>
@@ -699,6 +699,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,12 +713,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3B801A-7DA4-4BC4-843D-0431BA6C0771}">
   <dimension ref="C1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1111,7 +1111,7 @@
       <c r="F5" s="11">
         <v>5</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="16">
         <v>1</v>
       </c>
       <c r="H5" s="13">
@@ -1120,7 +1120,7 @@
       </c>
     </row>
     <row r="6" spans="3:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1132,14 +1132,14 @@
       <c r="F6" s="4">
         <v>10</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="6">
         <f t="shared" ref="H6:H18" si="0">F6-G6</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="17"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1149,16 +1149,16 @@
       <c r="F7" s="4">
         <v>15</v>
       </c>
-      <c r="G7" s="20">
-        <v>2.5</v>
+      <c r="G7" s="17">
+        <v>4.5</v>
       </c>
       <c r="H7" s="6">
         <f>F7-G7</f>
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="17"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1168,14 +1168,14 @@
       <c r="F8" s="4">
         <v>20</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="6">
         <f>F8-G8</f>
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="17"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1185,14 +1185,14 @@
       <c r="F9" s="4">
         <v>25</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="17"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1202,14 +1202,14 @@
       <c r="F10" s="4">
         <v>15</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="17"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1219,14 +1219,14 @@
       <c r="F11" s="4">
         <v>35</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="18"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1236,14 +1236,14 @@
       <c r="F12" s="4">
         <v>15</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1255,14 +1255,14 @@
       <c r="F13" s="4">
         <v>8</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="17"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1272,14 +1272,14 @@
       <c r="F14" s="4">
         <v>4</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="18"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1289,14 +1289,14 @@
       <c r="F15" s="4">
         <v>5</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1308,14 +1308,14 @@
       <c r="F16" s="4">
         <v>5</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="18"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="4" t="s">
         <v>36</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="F17" s="4">
         <v>5</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1344,7 +1344,7 @@
       <c r="F18" s="4">
         <v>20</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1362,11 +1362,11 @@
       </c>
       <c r="G19" s="9">
         <f>SUM(G5:G18)</f>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H19" s="10">
         <f>SUM(H5:H18)</f>
-        <v>183.5</v>
+        <v>181.5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Puyopuyo_CostTable.xlsx
+++ b/Excel/Puyopuyo_CostTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Puyopuyo\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786DEA63-9777-4F66-AF3D-2DBA39F8714B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED21AC20-AC8F-40E2-98F4-303D6267CDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{69444C38-F53F-464E-A8E2-FCA135B7F7B6}"/>
   </bookViews>
@@ -416,7 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,17 +702,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3B801A-7DA4-4BC4-843D-0431BA6C0771}">
-  <dimension ref="C1:H19"/>
+  <dimension ref="C1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1068,312 +1068,313 @@
     <col min="14" max="14" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="1" t="s">
+    <row r="2" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="15" t="s">
+    <row r="4" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F4" s="11">
         <v>5</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G4" s="16">
         <v>1</v>
       </c>
-      <c r="H5" s="13">
-        <f>F5-G5</f>
+      <c r="H4" s="13">
+        <f>F4-G4</f>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="18" t="s">
+    <row r="5" spans="3:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="17" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5:H17" si="0">F5-G5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="18"/>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4">
-        <v>10</v>
-      </c>
-      <c r="G6" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="G6" s="20">
+        <v>10.5</v>
+      </c>
       <c r="H6" s="6">
-        <f t="shared" ref="H6:H18" si="0">F6-G6</f>
-        <v>10</v>
+        <f>F6-G6</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="19"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4">
-        <v>15</v>
-      </c>
-      <c r="G7" s="17">
-        <v>4.5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G7" s="20"/>
       <c r="H7" s="6">
         <f>F7-G7</f>
-        <v>10.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="19"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4">
+        <v>25</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="18"/>
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="6">
-        <f>F8-G8</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="19"/>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4">
-        <v>25</v>
-      </c>
-      <c r="G9" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0.5</v>
+      </c>
       <c r="H9" s="6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="19"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4">
-        <v>15</v>
-      </c>
-      <c r="G10" s="17"/>
+        <v>35</v>
+      </c>
+      <c r="G10" s="20"/>
       <c r="H10" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C11" s="19"/>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F11" s="4">
-        <v>35</v>
-      </c>
-      <c r="G11" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="G11" s="20"/>
       <c r="H11" s="6">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="20"/>
+      <c r="C12" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4">
-        <v>15</v>
-      </c>
-      <c r="G12" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="G12" s="20"/>
       <c r="H12" s="6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="18" t="s">
-        <v>26</v>
-      </c>
+      <c r="C13" s="18"/>
       <c r="D13" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" s="4">
-        <v>8</v>
-      </c>
-      <c r="G13" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="20"/>
       <c r="H13" s="6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="19"/>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F14" s="4">
-        <v>4</v>
-      </c>
-      <c r="G14" s="17"/>
+        <v>5</v>
+      </c>
+      <c r="G14" s="20"/>
       <c r="H14" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="20"/>
+      <c r="C15" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F15" s="4">
         <v>5</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="18" t="s">
-        <v>33</v>
-      </c>
+      <c r="C16" s="19"/>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F16" s="4">
         <v>5</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="20"/>
+      <c r="C17" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="D17" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F17" s="4">
-        <v>5</v>
-      </c>
-      <c r="G17" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="G17" s="20"/>
       <c r="H17" s="6">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="4">
         <v>20</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="7" t="s">
+    </row>
+    <row r="18" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9">
-        <f>SUM(F5:F18)</f>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9">
+        <f>SUM(F4:F17)</f>
         <v>187</v>
       </c>
-      <c r="G19" s="9">
-        <f>SUM(G5:G18)</f>
-        <v>5.5</v>
-      </c>
-      <c r="H19" s="10">
-        <f>SUM(H5:H18)</f>
-        <v>181.5</v>
+      <c r="G18" s="9">
+        <f>SUM(G4:G17)</f>
+        <v>12</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(H4:H17)</f>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Puyopuyo_CostTable.xlsx
+++ b/Excel/Puyopuyo_CostTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Puyopuyo\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED21AC20-AC8F-40E2-98F4-303D6267CDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1C84F8-8788-482E-8708-36F7067740CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{69444C38-F53F-464E-A8E2-FCA135B7F7B6}"/>
   </bookViews>
@@ -650,7 +650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,6 +702,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,7 +714,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,7 +1057,7 @@
   <dimension ref="C1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1119,7 +1125,7 @@
       </c>
     </row>
     <row r="5" spans="3:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1131,14 +1137,14 @@
       <c r="F5" s="4">
         <v>10</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H17" si="0">F5-G5</f>
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="18"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1148,7 +1154,7 @@
       <c r="F6" s="4">
         <v>15</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <v>10.5</v>
       </c>
       <c r="H6" s="6">
@@ -1157,7 +1163,7 @@
       </c>
     </row>
     <row r="7" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="18"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1167,14 +1173,14 @@
       <c r="F7" s="4">
         <v>20</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="6">
         <f>F7-G7</f>
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="18"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1184,14 +1190,14 @@
       <c r="F8" s="4">
         <v>25</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="18"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1201,16 +1207,16 @@
       <c r="F9" s="4">
         <v>15</v>
       </c>
-      <c r="G9" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="21">
+        <v>3</v>
+      </c>
+      <c r="H9" s="22">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1220,14 +1226,14 @@
       <c r="F10" s="4">
         <v>35</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1237,14 +1243,14 @@
       <c r="F11" s="4">
         <v>15</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1256,14 +1262,14 @@
       <c r="F12" s="4">
         <v>8</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="18"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1273,14 +1279,14 @@
       <c r="F13" s="4">
         <v>4</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1290,14 +1296,14 @@
       <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1309,14 +1315,14 @@
       <c r="F15" s="4">
         <v>5</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
         <v>36</v>
       </c>
@@ -1326,7 +1332,7 @@
       <c r="F16" s="4">
         <v>5</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1345,7 +1351,7 @@
       <c r="F17" s="4">
         <v>20</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1363,11 +1369,11 @@
       </c>
       <c r="G18" s="9">
         <f>SUM(G4:G17)</f>
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="H18" s="10">
         <f>SUM(H4:H17)</f>
-        <v>175</v>
+        <v>172.5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Puyopuyo_CostTable.xlsx
+++ b/Excel/Puyopuyo_CostTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Puyopuyo\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1C84F8-8788-482E-8708-36F7067740CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B5573-2067-479E-9CEF-A7AAF1A7CF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{69444C38-F53F-464E-A8E2-FCA135B7F7B6}"/>
   </bookViews>
@@ -705,6 +705,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,12 +719,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,7 +1057,7 @@
   <dimension ref="C1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1125,7 +1125,7 @@
       </c>
     </row>
     <row r="5" spans="3:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1144,7 +1144,7 @@
       </c>
     </row>
     <row r="6" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="19"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1163,7 +1163,7 @@
       </c>
     </row>
     <row r="7" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="19"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1180,7 +1180,7 @@
       </c>
     </row>
     <row r="8" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="19"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1197,7 +1197,7 @@
       </c>
     </row>
     <row r="9" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="19"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1207,16 +1207,16 @@
       <c r="F9" s="4">
         <v>15</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="18">
         <v>3</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="19">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="19"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="11" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="20"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1250,7 +1250,7 @@
       </c>
     </row>
     <row r="12" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1269,7 +1269,7 @@
       </c>
     </row>
     <row r="13" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="19"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1286,7 +1286,7 @@
       </c>
     </row>
     <row r="14" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="20"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1303,7 +1303,7 @@
       </c>
     </row>
     <row r="15" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="16" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="20"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="4" t="s">
         <v>36</v>
       </c>

--- a/Excel/Puyopuyo_CostTable.xlsx
+++ b/Excel/Puyopuyo_CostTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Puyopuyo\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B5573-2067-479E-9CEF-A7AAF1A7CF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B118C10B-705F-46CE-92B2-EB8E9A7E82DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{69444C38-F53F-464E-A8E2-FCA135B7F7B6}"/>
   </bookViews>
@@ -401,7 +401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +420,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -650,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +725,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,7 +1069,7 @@
   <dimension ref="C1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1154,10 +1166,10 @@
       <c r="F6" s="4">
         <v>15</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="23">
         <v>10.5</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="24">
         <f>F6-G6</f>
         <v>4.5</v>
       </c>
@@ -1173,10 +1185,12 @@
       <c r="F7" s="4">
         <v>20</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="17">
+        <v>3</v>
+      </c>
       <c r="H7" s="6">
         <f>F7-G7</f>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="36" customHeight="1" x14ac:dyDescent="0.4">
@@ -1369,11 +1383,11 @@
       </c>
       <c r="G18" s="9">
         <f>SUM(G4:G17)</f>
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="H18" s="10">
         <f>SUM(H4:H17)</f>
-        <v>172.5</v>
+        <v>169.5</v>
       </c>
     </row>
   </sheetData>
